--- a/equipmentcost.xlsx
+++ b/equipmentcost.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mckellbrenchley/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pinch\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DA9450-2544-864A-B308-8596A215F7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8AA162-A6AA-4D7D-B95A-530100DAC2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14160" xr2:uid="{8B20D4AB-52DE-B647-A71E-936F5E08AE69}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8B20D4AB-52DE-B647-A71E-936F5E08AE69}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Equipment</t>
   </si>
@@ -81,6 +81,30 @@
   </si>
   <si>
     <t>Pipes 3/4</t>
+  </si>
+  <si>
+    <t>Man Hours</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Up to 02/20</t>
+  </si>
+  <si>
+    <t>Original Budget</t>
+  </si>
+  <si>
+    <t>Pump</t>
+  </si>
+  <si>
+    <t>Tank</t>
+  </si>
+  <si>
+    <t>Budget Difference</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
@@ -452,18 +476,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FCEAF5-F9AE-E443-869E-05E2BD47AD09}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -477,92 +501,263 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <v>750</v>
+      </c>
+      <c r="D2">
+        <f>C2*B2</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>600</v>
+      </c>
+      <c r="D3">
+        <f>C3*B3</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>60</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D5" si="0">C4*B4</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>2000</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <f>C6*B6</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <f>C7*B7</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>70</v>
+      </c>
+      <c r="D8">
+        <f>C8*B8</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B9">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="C9">
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <f>C9*B9</f>
+        <v>126.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>13</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>11</v>
       </c>
       <c r="B10">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <f>C10*B10</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>2.5</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <f>C11*B11</f>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <f>C12*B12</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B11">
+      <c r="B13">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>2.5</v>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <f>C13*B13</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <f>C14*B14</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <f>6+6+9+9+7+7+3+1</f>
+        <v>48</v>
+      </c>
+      <c r="C15">
+        <v>40</v>
+      </c>
+      <c r="D15">
+        <f>C15*B15</f>
+        <v>1920</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <f>C16*B16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <f>SUM(D2:D16)</f>
+        <v>6206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>5530</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <f>D18-D17</f>
+        <v>-676</v>
+      </c>
+      <c r="E19">
+        <f>D17/D18*100</f>
+        <v>112.22423146473778</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
